--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I394"/>
+  <dimension ref="A1:I395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14168,6 +14168,41 @@
         <v>2113200</v>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F395" t="n">
+        <v>2</v>
+      </c>
+      <c r="G395" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H395" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="I395" t="n">
+        <v>1325900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I395"/>
+  <dimension ref="A1:I396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14203,6 +14203,41 @@
         <v>1325900</v>
       </c>
     </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F396" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G396" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H396" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I396" t="n">
+        <v>1700700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I396"/>
+  <dimension ref="A1:I397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14238,6 +14238,41 @@
         <v>1700700</v>
       </c>
     </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>2</v>
+      </c>
+      <c r="F397" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G397" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H397" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I397" t="n">
+        <v>1458900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I397"/>
+  <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14273,6 +14273,41 @@
         <v>1458900</v>
       </c>
     </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F398" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G398" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H398" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I398" t="n">
+        <v>691400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I398"/>
+  <dimension ref="A1:I399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14308,6 +14308,41 @@
         <v>691400</v>
       </c>
     </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F399" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G399" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H399" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I399" t="n">
+        <v>3600300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I399"/>
+  <dimension ref="A1:I400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14343,6 +14343,41 @@
         <v>3600300</v>
       </c>
     </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F400" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G400" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H400" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="I400" t="n">
+        <v>2943900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I400"/>
+  <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14378,6 +14378,41 @@
         <v>2943900</v>
       </c>
     </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F401" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G401" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H401" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="I401" t="n">
+        <v>7744700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I401"/>
+  <dimension ref="A1:I402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14413,6 +14413,41 @@
         <v>7744700</v>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F402" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G402" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H402" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I402" t="n">
+        <v>7112000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I402"/>
+  <dimension ref="A1:I403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14448,6 +14448,41 @@
         <v>7112000</v>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F403" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="G403" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H403" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="I403" t="n">
+        <v>29616700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I403"/>
+  <dimension ref="A1:I404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14483,6 +14483,41 @@
         <v>29616700</v>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F404" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G404" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H404" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I404" t="n">
+        <v>16057500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I404"/>
+  <dimension ref="A1:I405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14518,6 +14518,41 @@
         <v>16057500</v>
       </c>
     </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F405" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G405" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H405" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="I405" t="n">
+        <v>15801500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I405"/>
+  <dimension ref="A1:I406"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14553,6 +14553,41 @@
         <v>15801500</v>
       </c>
     </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="F406" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="G406" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="H406" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I406" t="n">
+        <v>12778200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I406"/>
+  <dimension ref="A1:I408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14588,6 +14588,76 @@
         <v>12778200</v>
       </c>
     </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="F407" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G407" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H407" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I407" t="n">
+        <v>11951600</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F408" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G408" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H408" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I408" t="n">
+        <v>23417600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I408"/>
+  <dimension ref="A1:I410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14658,6 +14658,76 @@
         <v>23417600</v>
       </c>
     </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F409" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G409" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H409" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I409" t="n">
+        <v>10346300</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F410" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G410" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="H410" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I410" t="n">
+        <v>8141600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I410"/>
+  <dimension ref="A1:I411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14728,6 +14728,41 @@
         <v>8141600</v>
       </c>
     </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F411" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G411" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H411" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I411" t="n">
+        <v>7809500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I411"/>
+  <dimension ref="A1:I412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14763,6 +14763,41 @@
         <v>7809500</v>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F412" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G412" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H412" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I412" t="n">
+        <v>7955300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I412"/>
+  <dimension ref="A1:I413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14798,6 +14798,41 @@
         <v>7955300</v>
       </c>
     </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F413" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G413" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H413" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I413" t="n">
+        <v>7336600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I413"/>
+  <dimension ref="A1:I414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14833,6 +14833,41 @@
         <v>7336600</v>
       </c>
     </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F414" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="G414" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H414" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I414" t="n">
+        <v>13347100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I414"/>
+  <dimension ref="A1:I416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14868,6 +14868,76 @@
         <v>13347100</v>
       </c>
     </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F415" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G415" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H415" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I415" t="n">
+        <v>13601600</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F416" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G416" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H416" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="I416" t="n">
+        <v>9804900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I416"/>
+  <dimension ref="A1:I417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14938,6 +14938,41 @@
         <v>9804900</v>
       </c>
     </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F417" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G417" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H417" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I417" t="n">
+        <v>9538200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I417"/>
+  <dimension ref="A1:I418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14973,6 +14973,41 @@
         <v>9538200</v>
       </c>
     </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F418" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G418" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H418" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I418" t="n">
+        <v>22399200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I418"/>
+  <dimension ref="A1:I427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12455,11 +12455,11 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -12473,28 +12473,28 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>2.54</v>
+        <v>1.613</v>
       </c>
       <c r="F346" t="n">
-        <v>2.55</v>
+        <v>1.647</v>
       </c>
       <c r="G346" t="n">
-        <v>2.5</v>
+        <v>1.613</v>
       </c>
       <c r="H346" t="n">
-        <v>2.51</v>
+        <v>1.64</v>
       </c>
       <c r="I346" t="n">
-        <v>951700</v>
+        <v>1601849</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -12508,28 +12508,28 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>2.52</v>
+        <v>1.647</v>
       </c>
       <c r="F347" t="n">
-        <v>2.55</v>
+        <v>1.76</v>
       </c>
       <c r="G347" t="n">
-        <v>2.5</v>
+        <v>1.647</v>
       </c>
       <c r="H347" t="n">
-        <v>2.52</v>
+        <v>1.76</v>
       </c>
       <c r="I347" t="n">
-        <v>1166200</v>
+        <v>6734847</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -12543,28 +12543,28 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>2.52</v>
+        <v>1.76</v>
       </c>
       <c r="F348" t="n">
-        <v>2.53</v>
+        <v>1.793</v>
       </c>
       <c r="G348" t="n">
-        <v>2.47</v>
+        <v>1.733</v>
       </c>
       <c r="H348" t="n">
-        <v>2.48</v>
+        <v>1.747</v>
       </c>
       <c r="I348" t="n">
-        <v>1841000</v>
+        <v>2616899</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -12578,28 +12578,28 @@
         </is>
       </c>
       <c r="E349" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="F349" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="G349" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="H349" t="n">
         <v>1.68</v>
       </c>
-      <c r="F349" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G349" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="H349" t="n">
-        <v>1.7</v>
-      </c>
       <c r="I349" t="n">
-        <v>2100500</v>
+        <v>2618099</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -12613,28 +12613,28 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>1.72</v>
+        <v>1.747</v>
       </c>
       <c r="F350" t="n">
-        <v>1.79</v>
+        <v>1.767</v>
       </c>
       <c r="G350" t="n">
-        <v>1.71</v>
+        <v>1.727</v>
       </c>
       <c r="H350" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I350" t="n">
-        <v>3962300</v>
+        <v>3625798</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -12651,25 +12651,25 @@
         <v>1.76</v>
       </c>
       <c r="F351" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="G351" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H351" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="I351" t="n">
-        <v>4051800</v>
+        <v>1341749</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -12683,28 +12683,28 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1.84</v>
+        <v>1.707</v>
       </c>
       <c r="F352" t="n">
-        <v>1.9</v>
+        <v>1.727</v>
       </c>
       <c r="G352" t="n">
-        <v>1.83</v>
+        <v>1.673</v>
       </c>
       <c r="H352" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="I352" t="n">
-        <v>3308400</v>
+        <v>1255649</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -12718,28 +12718,28 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1.89</v>
+        <v>1.68</v>
       </c>
       <c r="F353" t="n">
-        <v>1.89</v>
+        <v>1.727</v>
       </c>
       <c r="G353" t="n">
-        <v>1.82</v>
+        <v>1.673</v>
       </c>
       <c r="H353" t="n">
-        <v>1.84</v>
+        <v>1.693</v>
       </c>
       <c r="I353" t="n">
-        <v>2707800</v>
+        <v>1583849</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -12753,28 +12753,28 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="F354" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="G354" t="n">
-        <v>1.8</v>
+        <v>1.693</v>
       </c>
       <c r="H354" t="n">
-        <v>1.83</v>
+        <v>1.693</v>
       </c>
       <c r="I354" t="n">
-        <v>1080300</v>
+        <v>586650</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -12788,28 +12788,28 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1.83</v>
+        <v>2.54</v>
       </c>
       <c r="F355" t="n">
-        <v>1.86</v>
+        <v>2.55</v>
       </c>
       <c r="G355" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="H355" t="n">
-        <v>1.85</v>
+        <v>2.51</v>
       </c>
       <c r="I355" t="n">
-        <v>1360900</v>
+        <v>951700</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -12823,28 +12823,28 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>1.87</v>
+        <v>2.52</v>
       </c>
       <c r="F356" t="n">
-        <v>1.92</v>
+        <v>2.55</v>
       </c>
       <c r="G356" t="n">
-        <v>1.86</v>
+        <v>2.5</v>
       </c>
       <c r="H356" t="n">
-        <v>1.92</v>
+        <v>2.52</v>
       </c>
       <c r="I356" t="n">
-        <v>3931500</v>
+        <v>1166200</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -12858,28 +12858,28 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1.93</v>
+        <v>2.52</v>
       </c>
       <c r="F357" t="n">
-        <v>1.97</v>
+        <v>2.53</v>
       </c>
       <c r="G357" t="n">
-        <v>1.92</v>
+        <v>2.47</v>
       </c>
       <c r="H357" t="n">
-        <v>1.94</v>
+        <v>2.48</v>
       </c>
       <c r="I357" t="n">
-        <v>2843500</v>
+        <v>1841000</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -12893,28 +12893,28 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="F358" t="n">
-        <v>1.97</v>
+        <v>1.73</v>
       </c>
       <c r="G358" t="n">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="H358" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="I358" t="n">
-        <v>2014200</v>
+        <v>2100500</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12928,28 +12928,28 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="F359" t="n">
-        <v>1.94</v>
+        <v>1.79</v>
       </c>
       <c r="G359" t="n">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="H359" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="I359" t="n">
-        <v>1441600</v>
+        <v>3962300</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -12963,28 +12963,28 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="F360" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="G360" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="H360" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="I360" t="n">
-        <v>1264300</v>
+        <v>4051800</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -12998,28 +12998,28 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="F361" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="G361" t="n">
         <v>1.83</v>
       </c>
       <c r="H361" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="I361" t="n">
-        <v>694700</v>
+        <v>3308400</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -13033,28 +13033,28 @@
         </is>
       </c>
       <c r="E362" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F362" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G362" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H362" t="n">
         <v>1.84</v>
       </c>
-      <c r="F362" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G362" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="H362" t="n">
-        <v>1.92</v>
-      </c>
       <c r="I362" t="n">
-        <v>2046800</v>
+        <v>2707800</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -13068,28 +13068,28 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="F363" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="G363" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="H363" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="I363" t="n">
-        <v>1163500</v>
+        <v>1080300</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -13103,28 +13103,28 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="F364" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="G364" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H364" t="n">
         <v>1.85</v>
       </c>
-      <c r="H364" t="n">
-        <v>1.86</v>
-      </c>
       <c r="I364" t="n">
-        <v>1369000</v>
+        <v>1360900</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -13138,28 +13138,28 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="F365" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G365" t="n">
         <v>1.86</v>
       </c>
       <c r="H365" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="I365" t="n">
-        <v>1167900</v>
+        <v>3931500</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -13173,28 +13173,28 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="F366" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="G366" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="H366" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="I366" t="n">
-        <v>2523200</v>
+        <v>2843500</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -13208,28 +13208,28 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="F367" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="G367" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H367" t="n">
         <v>1.91</v>
       </c>
       <c r="I367" t="n">
-        <v>1723700</v>
+        <v>2014200</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -13243,28 +13243,28 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="F368" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G368" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="H368" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="I368" t="n">
-        <v>2391800</v>
+        <v>1441600</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -13278,28 +13278,28 @@
         </is>
       </c>
       <c r="E369" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F369" t="n">
         <v>1.91</v>
       </c>
-      <c r="F369" t="n">
-        <v>1.92</v>
-      </c>
       <c r="G369" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="H369" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="I369" t="n">
-        <v>2183000</v>
+        <v>1264300</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -13313,28 +13313,28 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="F370" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="G370" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H370" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="I370" t="n">
-        <v>1574200</v>
+        <v>694700</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -13348,28 +13348,28 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="F371" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G371" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="H371" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="I371" t="n">
-        <v>672600</v>
+        <v>2046800</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -13383,28 +13383,28 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="F372" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="G372" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="H372" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="I372" t="n">
-        <v>5454700</v>
+        <v>1163500</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -13418,28 +13418,28 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="F373" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G373" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H373" t="n">
         <v>1.86</v>
       </c>
-      <c r="G373" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="H373" t="n">
-        <v>1.84</v>
-      </c>
       <c r="I373" t="n">
-        <v>1264300</v>
+        <v>1369000</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -13453,28 +13453,28 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="F374" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="G374" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="H374" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="I374" t="n">
-        <v>755200</v>
+        <v>1167900</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -13488,28 +13488,28 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="F375" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="G375" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="H375" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="I375" t="n">
-        <v>3149200</v>
+        <v>2523200</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -13523,28 +13523,28 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="F376" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="G376" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H376" t="n">
         <v>1.91</v>
       </c>
       <c r="I376" t="n">
-        <v>1822100</v>
+        <v>1723700</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -13558,28 +13558,28 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="F377" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G377" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H377" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="I377" t="n">
-        <v>649300</v>
+        <v>2391800</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -13596,25 +13596,25 @@
         <v>1.91</v>
       </c>
       <c r="F378" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="G378" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H378" t="n">
         <v>1.9</v>
       </c>
-      <c r="H378" t="n">
-        <v>1.94</v>
-      </c>
       <c r="I378" t="n">
-        <v>5563200</v>
+        <v>2183000</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -13628,28 +13628,28 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
       <c r="F379" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="G379" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="H379" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="I379" t="n">
-        <v>1835400</v>
+        <v>1574200</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -13663,28 +13663,28 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="F380" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="G380" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="H380" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="I380" t="n">
-        <v>1426600</v>
+        <v>672600</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -13698,28 +13698,28 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="F381" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="G381" t="n">
-        <v>1.96</v>
+        <v>1.72</v>
       </c>
       <c r="H381" t="n">
-        <v>2.01</v>
+        <v>1.79</v>
       </c>
       <c r="I381" t="n">
-        <v>4801400</v>
+        <v>5454700</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -13733,28 +13733,28 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="F382" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="G382" t="n">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="H382" t="n">
-        <v>2.01</v>
+        <v>1.84</v>
       </c>
       <c r="I382" t="n">
-        <v>1737900</v>
+        <v>1264300</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -13768,28 +13768,28 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="F383" t="n">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="G383" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="H383" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="I383" t="n">
-        <v>2520400</v>
+        <v>755200</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -13803,28 +13803,28 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>2.07</v>
+        <v>1.84</v>
       </c>
       <c r="F384" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="G384" t="n">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="H384" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="I384" t="n">
-        <v>823800</v>
+        <v>3149200</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -13838,28 +13838,28 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="F385" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="G385" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="I385" t="n">
-        <v>3866900</v>
+        <v>1822100</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -13873,28 +13873,28 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="F386" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="G386" t="n">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="H386" t="n">
-        <v>2.07</v>
+        <v>1.89</v>
       </c>
       <c r="I386" t="n">
-        <v>1639800</v>
+        <v>649300</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -13908,28 +13908,28 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="F387" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="G387" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="H387" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="I387" t="n">
-        <v>2545700</v>
+        <v>5563200</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -13943,28 +13943,28 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="F388" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="G388" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="H388" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="I388" t="n">
-        <v>7238300</v>
+        <v>1835400</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -13978,28 +13978,28 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="F389" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="G389" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="H389" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="I389" t="n">
-        <v>6348800</v>
+        <v>1426600</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -14013,28 +14013,28 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="F390" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="G390" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="H390" t="n">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="I390" t="n">
-        <v>3060300</v>
+        <v>4801400</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -14048,28 +14048,28 @@
         </is>
       </c>
       <c r="E391" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F391" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G391" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H391" t="n">
         <v>2.01</v>
       </c>
-      <c r="F391" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="G391" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="H391" t="n">
-        <v>1.96</v>
-      </c>
       <c r="I391" t="n">
-        <v>1176100</v>
+        <v>1737900</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -14083,28 +14083,28 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="F392" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="G392" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="H392" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I392" t="n">
-        <v>2416000</v>
+        <v>2520400</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -14118,28 +14118,28 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="F393" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="G393" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="H393" t="n">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="I393" t="n">
-        <v>1410700</v>
+        <v>823800</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -14153,28 +14153,28 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="F394" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="G394" t="n">
         <v>1.95</v>
       </c>
       <c r="H394" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="I394" t="n">
-        <v>2113200</v>
+        <v>3866900</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -14188,28 +14188,28 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="F395" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="G395" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="H395" t="n">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="I395" t="n">
-        <v>1325900</v>
+        <v>1639800</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -14223,28 +14223,28 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="F396" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="G396" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H396" t="n">
         <v>1.98</v>
       </c>
       <c r="I396" t="n">
-        <v>1700700</v>
+        <v>2545700</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -14258,28 +14258,28 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="F397" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="G397" t="n">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="H397" t="n">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="I397" t="n">
-        <v>1458900</v>
+        <v>7238300</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -14293,28 +14293,28 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="F398" t="n">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="G398" t="n">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="H398" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="I398" t="n">
-        <v>691400</v>
+        <v>6348800</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -14328,28 +14328,28 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="F399" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="G399" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H399" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="I399" t="n">
-        <v>3600300</v>
+        <v>3060300</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -14363,28 +14363,28 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="F400" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="G400" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="H400" t="n">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="I400" t="n">
-        <v>2943900</v>
+        <v>1176100</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -14398,28 +14398,28 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="F401" t="n">
-        <v>2.21</v>
+        <v>2.03</v>
       </c>
       <c r="G401" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="H401" t="n">
-        <v>2.21</v>
+        <v>2.02</v>
       </c>
       <c r="I401" t="n">
-        <v>7744700</v>
+        <v>2416000</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -14433,28 +14433,28 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>2.21</v>
+        <v>2.01</v>
       </c>
       <c r="F402" t="n">
-        <v>2.32</v>
+        <v>2.03</v>
       </c>
       <c r="G402" t="n">
-        <v>2.17</v>
+        <v>1.98</v>
       </c>
       <c r="H402" t="n">
-        <v>2.31</v>
+        <v>2.01</v>
       </c>
       <c r="I402" t="n">
-        <v>7112000</v>
+        <v>1410700</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -14468,28 +14468,28 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>2.36</v>
+        <v>1.99</v>
       </c>
       <c r="F403" t="n">
-        <v>2.81</v>
+        <v>2.01</v>
       </c>
       <c r="G403" t="n">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="H403" t="n">
-        <v>2.69</v>
+        <v>1.95</v>
       </c>
       <c r="I403" t="n">
-        <v>29616700</v>
+        <v>2113200</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -14503,28 +14503,28 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>2.5</v>
+        <v>1.97</v>
       </c>
       <c r="F404" t="n">
-        <v>2.85</v>
+        <v>2</v>
       </c>
       <c r="G404" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="H404" t="n">
-        <v>2.67</v>
+        <v>1.96</v>
       </c>
       <c r="I404" t="n">
-        <v>16057500</v>
+        <v>1325900</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -14538,28 +14538,28 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>2.61</v>
+        <v>1.96</v>
       </c>
       <c r="F405" t="n">
-        <v>2.98</v>
+        <v>2.01</v>
       </c>
       <c r="G405" t="n">
-        <v>2.61</v>
+        <v>1.95</v>
       </c>
       <c r="H405" t="n">
-        <v>2.97</v>
+        <v>1.98</v>
       </c>
       <c r="I405" t="n">
-        <v>15801500</v>
+        <v>1700700</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -14573,28 +14573,28 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>2.96</v>
+        <v>2</v>
       </c>
       <c r="F406" t="n">
-        <v>3.11</v>
+        <v>2.02</v>
       </c>
       <c r="G406" t="n">
-        <v>2.93</v>
+        <v>1.99</v>
       </c>
       <c r="H406" t="n">
-        <v>2.95</v>
+        <v>1.99</v>
       </c>
       <c r="I406" t="n">
-        <v>12778200</v>
+        <v>1458900</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -14608,28 +14608,28 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>2.93</v>
+        <v>1.99</v>
       </c>
       <c r="F407" t="n">
-        <v>2.93</v>
+        <v>1.99</v>
       </c>
       <c r="G407" t="n">
-        <v>2.74</v>
+        <v>1.97</v>
       </c>
       <c r="H407" t="n">
-        <v>2.8</v>
+        <v>1.97</v>
       </c>
       <c r="I407" t="n">
-        <v>11951600</v>
+        <v>691400</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -14643,28 +14643,28 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>2.68</v>
+        <v>1.97</v>
       </c>
       <c r="F408" t="n">
-        <v>2.75</v>
+        <v>2.06</v>
       </c>
       <c r="G408" t="n">
-        <v>2.5</v>
+        <v>1.97</v>
       </c>
       <c r="H408" t="n">
-        <v>2.68</v>
+        <v>2.06</v>
       </c>
       <c r="I408" t="n">
-        <v>23417600</v>
+        <v>3600300</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -14678,28 +14678,28 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>2.68</v>
+        <v>2.08</v>
       </c>
       <c r="F409" t="n">
-        <v>2.8</v>
+        <v>2.08</v>
       </c>
       <c r="G409" t="n">
-        <v>2.58</v>
+        <v>2.01</v>
       </c>
       <c r="H409" t="n">
-        <v>2.8</v>
+        <v>2.07</v>
       </c>
       <c r="I409" t="n">
-        <v>10346300</v>
+        <v>2943900</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -14713,28 +14713,28 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>2.92</v>
+        <v>2.07</v>
       </c>
       <c r="F410" t="n">
-        <v>2.94</v>
+        <v>2.21</v>
       </c>
       <c r="G410" t="n">
-        <v>2.73</v>
+        <v>2.04</v>
       </c>
       <c r="H410" t="n">
-        <v>2.77</v>
+        <v>2.21</v>
       </c>
       <c r="I410" t="n">
-        <v>8141600</v>
+        <v>7744700</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -14748,28 +14748,28 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>2.73</v>
+        <v>2.21</v>
       </c>
       <c r="F411" t="n">
-        <v>2.85</v>
+        <v>2.32</v>
       </c>
       <c r="G411" t="n">
-        <v>2.67</v>
+        <v>2.17</v>
       </c>
       <c r="H411" t="n">
-        <v>2.8</v>
+        <v>2.31</v>
       </c>
       <c r="I411" t="n">
-        <v>7809500</v>
+        <v>7112000</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -14783,28 +14783,28 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>2.8</v>
+        <v>2.36</v>
       </c>
       <c r="F412" t="n">
-        <v>2.93</v>
+        <v>2.81</v>
       </c>
       <c r="G412" t="n">
-        <v>2.79</v>
+        <v>2.36</v>
       </c>
       <c r="H412" t="n">
-        <v>2.87</v>
+        <v>2.69</v>
       </c>
       <c r="I412" t="n">
-        <v>7955300</v>
+        <v>29616700</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -14818,28 +14818,28 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>2.84</v>
+        <v>2.5</v>
       </c>
       <c r="F413" t="n">
-        <v>2.96</v>
+        <v>2.85</v>
       </c>
       <c r="G413" t="n">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="H413" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="I413" t="n">
-        <v>7336600</v>
+        <v>16057500</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -14853,28 +14853,28 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="F414" t="n">
-        <v>2.73</v>
+        <v>2.98</v>
       </c>
       <c r="G414" t="n">
-        <v>2.3</v>
+        <v>2.61</v>
       </c>
       <c r="H414" t="n">
-        <v>2.32</v>
+        <v>2.97</v>
       </c>
       <c r="I414" t="n">
-        <v>13347100</v>
+        <v>15801500</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -14888,28 +14888,28 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>2.25</v>
+        <v>2.96</v>
       </c>
       <c r="F415" t="n">
-        <v>2.65</v>
+        <v>3.11</v>
       </c>
       <c r="G415" t="n">
-        <v>2.24</v>
+        <v>2.93</v>
       </c>
       <c r="H415" t="n">
-        <v>2.64</v>
+        <v>2.95</v>
       </c>
       <c r="I415" t="n">
-        <v>13601600</v>
+        <v>12778200</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -14923,28 +14923,28 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>2.66</v>
+        <v>2.93</v>
       </c>
       <c r="F416" t="n">
-        <v>2.72</v>
+        <v>2.93</v>
       </c>
       <c r="G416" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="H416" t="n">
-        <v>2.53</v>
+        <v>2.8</v>
       </c>
       <c r="I416" t="n">
-        <v>9804900</v>
+        <v>11951600</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -14958,53 +14958,368 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>2.43</v>
+        <v>2.68</v>
       </c>
       <c r="F417" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="G417" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="H417" t="n">
-        <v>2.31</v>
+        <v>2.68</v>
       </c>
       <c r="I417" t="n">
-        <v>9538200</v>
+        <v>23417600</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F418" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G418" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H418" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I418" t="n">
+        <v>10346300</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F419" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G419" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="H419" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I419" t="n">
+        <v>8141600</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F420" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G420" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H420" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I420" t="n">
+        <v>7809500</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F421" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="G421" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H421" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I421" t="n">
+        <v>7955300</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F422" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G422" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H422" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I422" t="n">
+        <v>7336600</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F423" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="G423" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H423" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I423" t="n">
+        <v>13347100</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F424" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G424" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H424" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I424" t="n">
+        <v>13601600</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F425" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G425" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H425" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="I425" t="n">
+        <v>9804900</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="F426" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G426" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H426" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I426" t="n">
+        <v>9538200</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B418" t="inlineStr">
+      <c r="B427" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C418" t="inlineStr">
-        <is>
-          <t>5286</t>
-        </is>
-      </c>
-      <c r="D418" t="inlineStr">
-        <is>
-          <t>MI</t>
-        </is>
-      </c>
-      <c r="E418" t="n">
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
         <v>2.13</v>
       </c>
-      <c r="F418" t="n">
+      <c r="F427" t="n">
         <v>2.32</v>
       </c>
-      <c r="G418" t="n">
+      <c r="G427" t="n">
         <v>1.98</v>
       </c>
-      <c r="H418" t="n">
+      <c r="H427" t="n">
         <v>2.16</v>
       </c>
-      <c r="I418" t="n">
+      <c r="I427" t="n">
         <v>22399200</v>
       </c>
     </row>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I427"/>
+  <dimension ref="A1:I428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15323,6 +15323,41 @@
         <v>22399200</v>
       </c>
     </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>2</v>
+      </c>
+      <c r="F428" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G428" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H428" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I428" t="n">
+        <v>16900200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I428"/>
+  <dimension ref="A1:I429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15358,6 +15358,41 @@
         <v>16900200</v>
       </c>
     </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F429" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G429" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H429" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I429" t="n">
+        <v>18165600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I429"/>
+  <dimension ref="A1:I430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15393,6 +15393,41 @@
         <v>18165600</v>
       </c>
     </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F430" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G430" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H430" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I430" t="n">
+        <v>13702500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I430"/>
+  <dimension ref="A1:I431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15428,6 +15428,41 @@
         <v>13702500</v>
       </c>
     </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F431" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G431" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H431" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I431" t="n">
+        <v>14714600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I431"/>
+  <dimension ref="A1:I432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15463,6 +15463,41 @@
         <v>14714600</v>
       </c>
     </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F432" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="G432" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H432" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I432" t="n">
+        <v>19386900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I432"/>
+  <dimension ref="A1:I433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15498,6 +15498,41 @@
         <v>19386900</v>
       </c>
     </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F433" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G433" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H433" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I433" t="n">
+        <v>27671700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I433"/>
+  <dimension ref="A1:I434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15533,6 +15533,41 @@
         <v>27671700</v>
       </c>
     </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F434" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G434" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H434" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I434" t="n">
+        <v>15978500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I434"/>
+  <dimension ref="A1:I435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15568,6 +15568,41 @@
         <v>15978500</v>
       </c>
     </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F435" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G435" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H435" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I435" t="n">
+        <v>22085500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I435"/>
+  <dimension ref="A1:I436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15603,6 +15603,41 @@
         <v>22085500</v>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F436" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G436" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H436" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I436" t="n">
+        <v>8186000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I436"/>
+  <dimension ref="A1:I437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15638,6 +15638,41 @@
         <v>8186000</v>
       </c>
     </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F437" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G437" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H437" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I437" t="n">
+        <v>11726300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I437"/>
+  <dimension ref="A1:I438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15673,6 +15673,41 @@
         <v>11726300</v>
       </c>
     </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F438" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G438" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H438" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I438" t="n">
+        <v>7413400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I438"/>
+  <dimension ref="A1:I439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15708,6 +15708,41 @@
         <v>7413400</v>
       </c>
     </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F439" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G439" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H439" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="I439" t="n">
+        <v>16294500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I439"/>
+  <dimension ref="A1:I440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15743,6 +15743,41 @@
         <v>16294500</v>
       </c>
     </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="F440" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G440" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H440" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I440" t="n">
+        <v>17198500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I440"/>
+  <dimension ref="A1:I441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15778,6 +15778,41 @@
         <v>17198500</v>
       </c>
     </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F441" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G441" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H441" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I441" t="n">
+        <v>9505400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I441"/>
+  <dimension ref="A1:I442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15813,6 +15813,41 @@
         <v>9505400</v>
       </c>
     </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F442" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G442" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H442" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I442" t="n">
+        <v>5214700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I442"/>
+  <dimension ref="A1:I443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15848,6 +15848,41 @@
         <v>5214700</v>
       </c>
     </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F443" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G443" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H443" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="I443" t="n">
+        <v>7438100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I443"/>
+  <dimension ref="A1:I444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15883,6 +15883,41 @@
         <v>7438100</v>
       </c>
     </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E444" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F444" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G444" t="n">
+        <v>2</v>
+      </c>
+      <c r="H444" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I444" t="n">
+        <v>15092900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I444"/>
+  <dimension ref="A1:I445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15918,6 +15918,41 @@
         <v>15092900</v>
       </c>
     </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E445" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F445" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G445" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H445" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="I445" t="n">
+        <v>10894400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I445"/>
+  <dimension ref="A1:I446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15953,6 +15953,41 @@
         <v>10894400</v>
       </c>
     </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E446" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F446" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="G446" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H446" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I446" t="n">
+        <v>3987600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I446"/>
+  <dimension ref="A1:I447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15988,6 +15988,41 @@
         <v>3987600</v>
       </c>
     </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E447" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F447" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="G447" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H447" t="n">
+        <v>2</v>
+      </c>
+      <c r="I447" t="n">
+        <v>3532500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I447"/>
+  <dimension ref="A1:I448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16023,6 +16023,41 @@
         <v>3532500</v>
       </c>
     </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E448" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F448" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G448" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H448" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I448" t="n">
+        <v>2341000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I448"/>
+  <dimension ref="A1:I449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16058,6 +16058,41 @@
         <v>2341000</v>
       </c>
     </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E449" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F449" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G449" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H449" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I449" t="n">
+        <v>6800900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I449"/>
+  <dimension ref="A1:I450"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16093,6 +16093,41 @@
         <v>6800900</v>
       </c>
     </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E450" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F450" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G450" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H450" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="I450" t="n">
+        <v>7096800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I450"/>
+  <dimension ref="A1:I451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16128,6 +16128,41 @@
         <v>7096800</v>
       </c>
     </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E451" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F451" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G451" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H451" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I451" t="n">
+        <v>3053100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I451"/>
+  <dimension ref="A1:I452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16163,6 +16163,41 @@
         <v>3053100</v>
       </c>
     </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E452" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F452" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="G452" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H452" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I452" t="n">
+        <v>9560100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I452"/>
+  <dimension ref="A1:I454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16198,6 +16198,76 @@
         <v>9560100</v>
       </c>
     </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E453" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F453" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G453" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H453" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I453" t="n">
+        <v>4978900</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E454" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F454" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G454" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H454" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I454" t="n">
+        <v>4854600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I454"/>
+  <dimension ref="A1:I455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16268,6 +16268,41 @@
         <v>4854600</v>
       </c>
     </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E455" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F455" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="G455" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H455" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="I455" t="n">
+        <v>3167600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I455"/>
+  <dimension ref="A1:I458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16303,6 +16303,111 @@
         <v>3167600</v>
       </c>
     </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E456" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F456" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="G456" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H456" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I456" t="n">
+        <v>2909700</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E457" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F457" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G457" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H457" t="n">
+        <v>2</v>
+      </c>
+      <c r="I457" t="n">
+        <v>1288900</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E458" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F458" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G458" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H458" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I458" t="n">
+        <v>1653100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I458"/>
+  <dimension ref="A1:I459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16408,6 +16408,41 @@
         <v>1653100</v>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E459" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F459" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G459" t="n">
+        <v>2</v>
+      </c>
+      <c r="H459" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="I459" t="n">
+        <v>1460900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I459"/>
+  <dimension ref="A1:I460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16443,6 +16443,41 @@
         <v>1460900</v>
       </c>
     </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E460" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F460" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G460" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H460" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I460" t="n">
+        <v>10346600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5286.xlsx
+++ b/data/5286.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I460"/>
+  <dimension ref="A1:I463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16478,6 +16478,111 @@
         <v>10346600</v>
       </c>
     </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E461" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F461" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="G461" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H461" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="I461" t="n">
+        <v>7437500</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E462" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F462" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G462" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H462" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="I462" t="n">
+        <v>6102700</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>5286</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>MI</t>
+        </is>
+      </c>
+      <c r="E463" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F463" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G463" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H463" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I463" t="n">
+        <v>2915300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
